--- a/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(D)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(D).xlsx
+++ b/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(D)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(D).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(D)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(D)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Den
-Dendrocereus - fam. Cactacées (Cactus)
+          <t>Den</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dendrocereus - fam. Cactacées (Cactus)
 Dendrocereus nudiflorus
 Dendrocereus undulosus
 Dendropanax
@@ -533,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(D)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dip
-Dipteryx - fam. Fabaceae
+          <t>Dip</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dipteryx - fam. Fabaceae
 Dipteryx alata syn. Dipterix pterota
 Dipteryx lacunifera
 Dipteryx magnifica
@@ -564,9 +586,43 @@
 Dipteryx panamensis
 Dipteryx polyphylla
 Dipteryx punctata
-Dipteryx rosea
-Dis
-Discocactus - fam. Cactacées (Cactus)
+Dipteryx rosea</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(D)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Di</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Discocactus - fam. Cactacées (Cactus)
 Discocactus bahiensis
 Discocactus crystallophilus
 Discocactus heptacanthus
